--- a/timings.xlsx
+++ b/timings.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB9AA43-E4A1-4134-871B-60A0EDE13E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3060" yWindow="345" windowWidth="14070" windowHeight="9945" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>Timings</t>
   </si>
@@ -30,23 +46,26 @@
     <t>Passcode</t>
   </si>
   <si>
-    <t>925 7400 2970</t>
+    <t>Meeting</t>
   </si>
   <si>
-    <t>GE7ce7</t>
+    <t>Class</t>
   </si>
   <si>
-    <t>225 7430 3970</t>
+    <t>243 965 6020</t>
   </si>
   <si>
-    <t>Df3daf</t>
+    <t>937 5420 3269</t>
+  </si>
+  <si>
+    <t>Good class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +76,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF232333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -81,13 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,11 +390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +403,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,31 +413,355 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.67222222222222217</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A753ACE-EA08-479C-935A-A77D423B3048}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9ECAEC7-8DD2-4AE2-A77D-7F08A556B753}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB57640-824F-45B0-B962-EF35A8396845}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF91EB4C-FD8A-4256-897C-EEACAC795D63}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A21BDB6-9962-419C-B591-624B67B42BEA}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C0C57-AAE7-4E53-8B21-19FC576E62DE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>